--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_19-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_19-46.xlsx
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>PARAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>PEDIARON SYRUP</t>
   </si>
   <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
@@ -2741,17 +2744,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2773,7 +2776,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2793,17 +2796,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2811,7 +2814,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2819,17 +2822,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2851,7 +2854,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2877,7 +2880,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2897,13 +2900,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2923,13 +2926,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2949,13 +2952,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2975,13 +2978,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3001,13 +3004,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3027,17 +3030,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3045,7 +3048,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3053,17 +3056,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>134.40000000000001</v>
+        <v>26</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>4</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3079,17 +3082,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3105,13 +3108,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3131,13 +3134,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3157,13 +3160,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3175,7 +3178,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3183,13 +3186,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3209,7 +3212,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3235,17 +3238,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3261,17 +3264,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3287,17 +3290,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3313,17 +3316,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3339,17 +3342,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3365,17 +3368,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3391,17 +3394,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3417,17 +3420,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3443,13 +3446,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3469,17 +3472,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3501,11 +3504,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3521,13 +3524,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3547,17 +3550,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>98.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3565,7 +3568,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3573,17 +3576,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>20</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3591,7 +3594,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3599,13 +3602,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3625,17 +3628,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3643,7 +3646,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3651,17 +3654,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3677,17 +3680,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3695,7 +3698,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3703,17 +3706,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3729,13 +3732,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3761,11 +3764,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3781,17 +3784,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3799,7 +3802,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3807,17 +3810,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3833,13 +3836,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3859,13 +3862,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3877,7 +3880,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3885,13 +3888,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3911,51 +3914,77 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="26.25" customHeight="1">
-      <c r="K115" s="11">
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>112</v>
+      </c>
+      <c t="s" r="B115" s="7">
+        <v>149</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c t="s" r="H115" s="8">
+        <v>47</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9">
+        <v>30</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c r="N115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="K116" s="11">
         <v>6490.4399999999996</v>
       </c>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="12">
-        <v>149</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c t="s" r="F116" s="13">
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="12">
         <v>150</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="14"/>
-      <c t="s" r="I116" s="15">
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c t="s" r="F117" s="13">
         <v>151</v>
       </c>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14"/>
+      <c t="s" r="I117" s="15">
+        <v>152</v>
+      </c>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="344">
+  <mergeCells count="347">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4296,10 +4325,13 @@
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
-    <mergeCell ref="K115:N115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:N116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="I117:N117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
